--- a/INPUT/DATA/Indice-masa-corporal.xlsx
+++ b/INPUT/DATA/Indice-masa-corporal.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="tabla-48005" r:id="rId3" sheetId="1"/>
+    <sheet name="tabla-48004" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -227,7 +227,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -247,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -315,7 +315,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Índice de masa corporal población adulta según sexo y relación con la actividad económica actual. Población de 18 y más años.</t>
+          <t>Índice de masa corporal población adulta según sexo, grupo de edad y nivel de estudios. Población de 18 y más años.</t>
         </is>
       </c>
       <c r="B4" s="3"/>
@@ -413,610 +413,1282 @@
           <t xml:space="preserve">    TOTAL</t>
         </is>
       </c>
-      <c r="B9" s="14" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C9" s="14" t="n">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        TOTAL</t>
+        </is>
+      </c>
+      <c r="B10" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C10" s="14" t="n">
         <v>2.08</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D10" s="14" t="n">
         <v>44.28</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E10" s="14" t="n">
         <v>37.63</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F10" s="14" t="n">
         <v>16.01</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Trabajando</t>
-        </is>
-      </c>
-      <c r="B10" s="14" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C10" s="14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D10" s="14" t="n">
-        <v>47.63</v>
-      </c>
-      <c r="E10" s="14" t="n">
-        <v>36.91</v>
-      </c>
-      <c r="F10" s="14" t="n">
-        <v>13.76</v>
-      </c>
-    </row>
     <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    En desempleo</t>
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Básico e inferior</t>
         </is>
       </c>
       <c r="B11" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C11" s="14" t="n">
-        <v>3.27</v>
+        <v>1.49</v>
       </c>
       <c r="D11" s="14" t="n">
-        <v>43.67</v>
+        <v>34.85</v>
       </c>
       <c r="E11" s="14" t="n">
-        <v>32.76</v>
+        <v>42.14</v>
       </c>
       <c r="F11" s="14" t="n">
-        <v>20.29</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Jubilado/a o prejubilado/a</t>
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Intermedio</t>
         </is>
       </c>
       <c r="B12" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C12" s="14" t="n">
-        <v>1.13</v>
+        <v>2.65</v>
       </c>
       <c r="D12" s="14" t="n">
-        <v>31.39</v>
+        <v>48.55</v>
       </c>
       <c r="E12" s="14" t="n">
-        <v>46.96</v>
+        <v>35.77</v>
       </c>
       <c r="F12" s="14" t="n">
-        <v>20.52</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Estudiando</t>
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Superior</t>
         </is>
       </c>
       <c r="B13" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C13" s="14" t="n">
-        <v>6.02</v>
+        <v>2.52</v>
       </c>
       <c r="D13" s="14" t="n">
-        <v>72.56</v>
+        <v>55.1</v>
       </c>
       <c r="E13" s="14" t="n">
-        <v>17.64</v>
+        <v>32.31</v>
       </c>
       <c r="F13" s="14" t="n">
-        <v>3.79</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Incapacitado/a para trabajar</t>
-        </is>
-      </c>
-      <c r="B14" s="14" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C14" s="14" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="D14" s="14" t="n">
-        <v>32.51</v>
-      </c>
-      <c r="E14" s="14" t="n">
-        <v>40.92</v>
-      </c>
-      <c r="F14" s="14" t="n">
-        <v>23.2</v>
-      </c>
+          <t xml:space="preserve">    De 18 a 24 años</t>
+        </is>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Labores del hogar</t>
+      <c r="A15" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        TOTAL</t>
         </is>
       </c>
       <c r="B15" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C15" s="14" t="n">
-        <v>2.17</v>
+        <v>5.93</v>
       </c>
       <c r="D15" s="14" t="n">
-        <v>39.18</v>
+        <v>69.17</v>
       </c>
       <c r="E15" s="14" t="n">
-        <v>38.35</v>
+        <v>20.3</v>
       </c>
       <c r="F15" s="14" t="n">
-        <v>20.29</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Otros</t>
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Básico e inferior</t>
         </is>
       </c>
       <c r="B16" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C16" s="14" t="n">
-        <v>2.66</v>
+        <v>6.37</v>
       </c>
       <c r="D16" s="14" t="n">
-        <v>35.52</v>
+        <v>61.5</v>
       </c>
       <c r="E16" s="14" t="n">
-        <v>49.32</v>
+        <v>23.5</v>
       </c>
       <c r="F16" s="14" t="n">
-        <v>12.5</v>
+        <v>8.63</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Intermedio</t>
+        </is>
+      </c>
+      <c r="B17" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C17" s="14" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>72.19</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="F17" s="14" t="n">
+        <v>3.21</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    TOTAL</t>
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Superior</t>
         </is>
       </c>
       <c r="B18" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C18" s="14" t="n">
-        <v>0.84</v>
+        <v>5.63</v>
       </c>
       <c r="D18" s="14" t="n">
-        <v>37.76</v>
+        <v>72.66</v>
       </c>
       <c r="E18" s="14" t="n">
-        <v>44.9</v>
+        <v>19.44</v>
       </c>
       <c r="F18" s="14" t="n">
-        <v>16.5</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Trabajando</t>
-        </is>
-      </c>
-      <c r="B19" s="14" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C19" s="14" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D19" s="14" t="n">
-        <v>38.94</v>
-      </c>
-      <c r="E19" s="14" t="n">
-        <v>45.02</v>
-      </c>
-      <c r="F19" s="14" t="n">
-        <v>15.56</v>
-      </c>
+          <t xml:space="preserve">    De 25 a 64 años</t>
+        </is>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    En desempleo</t>
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        TOTAL</t>
         </is>
       </c>
       <c r="B20" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C20" s="14" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="D20" s="14" t="n">
-        <v>38.56</v>
+        <v>45.28</v>
       </c>
       <c r="E20" s="14" t="n">
-        <v>40.07</v>
+        <v>37.03</v>
       </c>
       <c r="F20" s="14" t="n">
-        <v>19.62</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Jubilado/a o prejubilado/a</t>
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Básico e inferior</t>
         </is>
       </c>
       <c r="B21" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C21" s="14" t="n">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="D21" s="14" t="n">
-        <v>26.48</v>
+        <v>36.2</v>
       </c>
       <c r="E21" s="14" t="n">
-        <v>52.55</v>
+        <v>41.18</v>
       </c>
       <c r="F21" s="14" t="n">
-        <v>20.21</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Estudiando</t>
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Intermedio</t>
         </is>
       </c>
       <c r="B22" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C22" s="14" t="n">
-        <v>2.99</v>
+        <v>2.04</v>
       </c>
       <c r="D22" s="14" t="n">
-        <v>72.71</v>
+        <v>43.9</v>
       </c>
       <c r="E22" s="14" t="n">
-        <v>21.44</v>
+        <v>38.74</v>
       </c>
       <c r="F22" s="14" t="n">
-        <v>2.85</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Incapacitado/a para trabajar</t>
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Superior</t>
         </is>
       </c>
       <c r="B23" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C23" s="14" t="n">
-        <v>1.72</v>
+        <v>2.5</v>
       </c>
       <c r="D23" s="14" t="n">
-        <v>32.15</v>
+        <v>55.44</v>
       </c>
       <c r="E23" s="14" t="n">
-        <v>44.6</v>
+        <v>31.73</v>
       </c>
       <c r="F23" s="14" t="n">
-        <v>21.54</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Labores del hogar</t>
-        </is>
-      </c>
-      <c r="B24" s="14" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C24" s="14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D24" s="14" t="n">
-        <v>43.05</v>
-      </c>
-      <c r="E24" s="14" t="n">
-        <v>35.38</v>
-      </c>
-      <c r="F24" s="14" t="n">
-        <v>21.57</v>
-      </c>
+          <t xml:space="preserve">    De 65 y más años</t>
+        </is>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Otros</t>
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        TOTAL</t>
         </is>
       </c>
       <c r="B25" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C25" s="14" t="n">
-        <v>0.0</v>
+        <v>1.22</v>
       </c>
       <c r="D25" s="14" t="n">
-        <v>35.96</v>
+        <v>31.76</v>
       </c>
       <c r="E25" s="14" t="n">
-        <v>50.86</v>
+        <v>46.04</v>
       </c>
       <c r="F25" s="14" t="n">
-        <v>13.18</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Básico e inferior</t>
+        </is>
+      </c>
+      <c r="B26" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C26" s="14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D26" s="14" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="E26" s="14" t="n">
+        <v>46.48</v>
+      </c>
+      <c r="F26" s="14" t="n">
+        <v>23.59</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    TOTAL</t>
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Intermedio</t>
         </is>
       </c>
       <c r="B27" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C27" s="14" t="n">
-        <v>3.28</v>
+        <v>1.22</v>
       </c>
       <c r="D27" s="14" t="n">
-        <v>50.63</v>
+        <v>38.0</v>
       </c>
       <c r="E27" s="14" t="n">
-        <v>30.56</v>
+        <v>45.59</v>
       </c>
       <c r="F27" s="14" t="n">
-        <v>15.54</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Trabajando</t>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Superior</t>
         </is>
       </c>
       <c r="B28" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C28" s="14" t="n">
-        <v>3.19</v>
+        <v>1.09</v>
       </c>
       <c r="D28" s="14" t="n">
-        <v>58.31</v>
+        <v>42.86</v>
       </c>
       <c r="E28" s="14" t="n">
-        <v>26.94</v>
+        <v>44.1</v>
       </c>
       <c r="F28" s="14" t="n">
-        <v>11.56</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    En desempleo</t>
-        </is>
-      </c>
-      <c r="B29" s="14" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C29" s="14" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="D29" s="14" t="n">
-        <v>48.74</v>
-      </c>
-      <c r="E29" s="14" t="n">
-        <v>25.51</v>
-      </c>
-      <c r="F29" s="14" t="n">
-        <v>20.96</v>
-      </c>
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>Hombres</t>
+        </is>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Jubilado/a o prejubilado/a</t>
-        </is>
-      </c>
-      <c r="B30" s="14" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C30" s="14" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="D30" s="14" t="n">
-        <v>37.51</v>
-      </c>
-      <c r="E30" s="14" t="n">
-        <v>39.98</v>
-      </c>
-      <c r="F30" s="14" t="n">
-        <v>20.92</v>
-      </c>
+          <t xml:space="preserve">    TOTAL</t>
+        </is>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Estudiando</t>
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        TOTAL</t>
         </is>
       </c>
       <c r="B31" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C31" s="14" t="n">
-        <v>8.65</v>
+        <v>0.84</v>
       </c>
       <c r="D31" s="14" t="n">
-        <v>72.43</v>
+        <v>37.76</v>
       </c>
       <c r="E31" s="14" t="n">
-        <v>14.33</v>
+        <v>44.9</v>
       </c>
       <c r="F31" s="14" t="n">
-        <v>4.6</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Incapacitado/a para trabajar</t>
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Básico e inferior</t>
         </is>
       </c>
       <c r="B32" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C32" s="14" t="n">
-        <v>5.74</v>
+        <v>0.97</v>
       </c>
       <c r="D32" s="14" t="n">
-        <v>33.04</v>
+        <v>30.75</v>
       </c>
       <c r="E32" s="14" t="n">
-        <v>35.6</v>
+        <v>47.06</v>
       </c>
       <c r="F32" s="14" t="n">
-        <v>25.62</v>
+        <v>21.22</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Labores del hogar</t>
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Intermedio</t>
         </is>
       </c>
       <c r="B33" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C33" s="14" t="n">
-        <v>2.2</v>
+        <v>0.86</v>
       </c>
       <c r="D33" s="14" t="n">
-        <v>39.13</v>
+        <v>41.42</v>
       </c>
       <c r="E33" s="14" t="n">
-        <v>38.39</v>
+        <v>43.96</v>
       </c>
       <c r="F33" s="14" t="n">
-        <v>20.28</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Otros</t>
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Superior</t>
         </is>
       </c>
       <c r="B34" s="14" t="n">
         <v>100.0</v>
       </c>
       <c r="C34" s="14" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D34" s="14" t="n">
+        <v>45.79</v>
+      </c>
+      <c r="E34" s="14" t="n">
+        <v>42.27</v>
+      </c>
+      <c r="F34" s="14" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    De 18 a 24 años</t>
+        </is>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        TOTAL</t>
+        </is>
+      </c>
+      <c r="B36" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C36" s="14" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="D36" s="14" t="n">
+        <v>68.85</v>
+      </c>
+      <c r="E36" s="14" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F36" s="14" t="n">
         <v>4.57</v>
       </c>
-      <c r="D34" s="14" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="E34" s="14" t="n">
-        <v>48.22</v>
-      </c>
-      <c r="F34" s="14" t="n">
-        <v>12.01</v>
-      </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="inlineStr">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Básico e inferior</t>
+        </is>
+      </c>
+      <c r="B37" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C37" s="14" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="D37" s="14" t="n">
+        <v>59.38</v>
+      </c>
+      <c r="E37" s="14" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F37" s="14" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Intermedio</t>
+        </is>
+      </c>
+      <c r="B38" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C38" s="14" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="D38" s="14" t="n">
+        <v>72.83</v>
+      </c>
+      <c r="E38" s="14" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="F38" s="14" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Superior</t>
+        </is>
+      </c>
+      <c r="B39" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C39" s="14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D39" s="14" t="n">
+        <v>75.79</v>
+      </c>
+      <c r="E39" s="14" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="F39" s="14" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    De 25 a 64 años</t>
+        </is>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        TOTAL</t>
+        </is>
+      </c>
+      <c r="B41" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C41" s="14" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D41" s="14" t="n">
+        <v>36.96</v>
+      </c>
+      <c r="E41" s="14" t="n">
+        <v>45.38</v>
+      </c>
+      <c r="F41" s="14" t="n">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Básico e inferior</t>
+        </is>
+      </c>
+      <c r="B42" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C42" s="14" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D42" s="14" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="E42" s="14" t="n">
+        <v>46.22</v>
+      </c>
+      <c r="F42" s="14" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Intermedio</t>
+        </is>
+      </c>
+      <c r="B43" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C43" s="14" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D43" s="14" t="n">
+        <v>34.67</v>
+      </c>
+      <c r="E43" s="14" t="n">
+        <v>48.55</v>
+      </c>
+      <c r="F43" s="14" t="n">
+        <v>16.26</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Superior</t>
+        </is>
+      </c>
+      <c r="B44" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C44" s="14" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D44" s="14" t="n">
+        <v>45.62</v>
+      </c>
+      <c r="E44" s="14" t="n">
+        <v>42.31</v>
+      </c>
+      <c r="F44" s="14" t="n">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    De 65 y más años</t>
+        </is>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        TOTAL</t>
+        </is>
+      </c>
+      <c r="B46" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C46" s="14" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="D46" s="14" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="E46" s="14" t="n">
+        <v>52.69</v>
+      </c>
+      <c r="F46" s="14" t="n">
+        <v>19.58</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Básico e inferior</t>
+        </is>
+      </c>
+      <c r="B47" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C47" s="14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D47" s="14" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="E47" s="14" t="n">
+        <v>52.89</v>
+      </c>
+      <c r="F47" s="14" t="n">
+        <v>22.09</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Intermedio</t>
+        </is>
+      </c>
+      <c r="B48" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C48" s="14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="14" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="E48" s="14" t="n">
+        <v>54.02</v>
+      </c>
+      <c r="F48" s="14" t="n">
+        <v>16.15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Superior</t>
+        </is>
+      </c>
+      <c r="B49" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C49" s="14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D49" s="14" t="n">
+        <v>34.97</v>
+      </c>
+      <c r="E49" s="14" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="F49" s="14" t="n">
+        <v>12.61</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>Mujeres</t>
+        </is>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    TOTAL</t>
+        </is>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        TOTAL</t>
+        </is>
+      </c>
+      <c r="B52" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C52" s="14" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="D52" s="14" t="n">
+        <v>50.63</v>
+      </c>
+      <c r="E52" s="14" t="n">
+        <v>30.56</v>
+      </c>
+      <c r="F52" s="14" t="n">
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Básico e inferior</t>
+        </is>
+      </c>
+      <c r="B53" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C53" s="14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D53" s="14" t="n">
+        <v>38.95</v>
+      </c>
+      <c r="E53" s="14" t="n">
+        <v>37.23</v>
+      </c>
+      <c r="F53" s="14" t="n">
+        <v>21.81</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Intermedio</t>
+        </is>
+      </c>
+      <c r="B54" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C54" s="14" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D54" s="14" t="n">
+        <v>55.65</v>
+      </c>
+      <c r="E54" s="14" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="F54" s="14" t="n">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Superior</t>
+        </is>
+      </c>
+      <c r="B55" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C55" s="14" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D55" s="14" t="n">
+        <v>63.65</v>
+      </c>
+      <c r="E55" s="14" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="F55" s="14" t="n">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    De 18 a 24 años</t>
+        </is>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        TOTAL</t>
+        </is>
+      </c>
+      <c r="B57" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C57" s="14" t="n">
+        <v>8.87</v>
+      </c>
+      <c r="D57" s="14" t="n">
+        <v>69.52</v>
+      </c>
+      <c r="E57" s="14" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="F57" s="14" t="n">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Básico e inferior</t>
+        </is>
+      </c>
+      <c r="B58" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C58" s="14" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="D58" s="14" t="n">
+        <v>64.65</v>
+      </c>
+      <c r="E58" s="14" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F58" s="14" t="n">
+        <v>10.77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Intermedio</t>
+        </is>
+      </c>
+      <c r="B59" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C59" s="14" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D59" s="14" t="n">
+        <v>71.53</v>
+      </c>
+      <c r="E59" s="14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F59" s="14" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Superior</t>
+        </is>
+      </c>
+      <c r="B60" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C60" s="14" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="D60" s="14" t="n">
+        <v>70.12</v>
+      </c>
+      <c r="E60" s="14" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="F60" s="14" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    De 25 a 64 años</t>
+        </is>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        TOTAL</t>
+        </is>
+      </c>
+      <c r="B62" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C62" s="14" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="D62" s="14" t="n">
+        <v>53.67</v>
+      </c>
+      <c r="E62" s="14" t="n">
+        <v>28.62</v>
+      </c>
+      <c r="F62" s="14" t="n">
+        <v>14.47</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Básico e inferior</t>
+        </is>
+      </c>
+      <c r="B63" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C63" s="14" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D63" s="14" t="n">
+        <v>42.42</v>
+      </c>
+      <c r="E63" s="14" t="n">
+        <v>35.25</v>
+      </c>
+      <c r="F63" s="14" t="n">
+        <v>20.47</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Intermedio</t>
+        </is>
+      </c>
+      <c r="B64" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C64" s="14" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="D64" s="14" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="E64" s="14" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="F64" s="14" t="n">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Superior</t>
+        </is>
+      </c>
+      <c r="B65" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C65" s="14" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D65" s="14" t="n">
+        <v>64.03</v>
+      </c>
+      <c r="E65" s="14" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="F65" s="14" t="n">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    De 65 y más años</t>
+        </is>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        TOTAL</t>
+        </is>
+      </c>
+      <c r="B67" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C67" s="14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D67" s="14" t="n">
+        <v>35.78</v>
+      </c>
+      <c r="E67" s="14" t="n">
+        <v>40.52</v>
+      </c>
+      <c r="F67" s="14" t="n">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Básico e inferior</t>
+        </is>
+      </c>
+      <c r="B68" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C68" s="14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D68" s="14" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="E68" s="14" t="n">
+        <v>41.84</v>
+      </c>
+      <c r="F68" s="14" t="n">
+        <v>24.68</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Intermedio</t>
+        </is>
+      </c>
+      <c r="B69" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C69" s="14" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D69" s="14" t="n">
+        <v>46.68</v>
+      </c>
+      <c r="E69" s="14" t="n">
+        <v>37.15</v>
+      </c>
+      <c r="F69" s="14" t="n">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Superior</t>
+        </is>
+      </c>
+      <c r="B70" s="14" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C70" s="14" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D70" s="14" t="n">
+        <v>54.59</v>
+      </c>
+      <c r="E70" s="14" t="n">
+        <v>33.87</v>
+      </c>
+      <c r="F70" s="14" t="n">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
         <is>
           <t>Notas:</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>Índice de masa corporal IMC = [peso Kg / estatura m al cuadrado]</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t xml:space="preserve"> El símbolo '.' debe interpretarse como dato que no se proporciona por muestra insuficiente</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t xml:space="preserve"> El símbolo '..' debe interpretarse como dato que no se recoge para esa clasificación de la tabla</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t xml:space="preserve"> Los datos correspondientes a celdas con menos de 35 mil personas han de ser tomados con precaución, ya que pueden estar afectados de elevados errores de muestreo</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="5" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fuente: </t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>Instituto Nacional de Estadística</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="21">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -1024,8 +1696,20 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A66:F66"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
